--- a/data/KPI.xlsx
+++ b/data/KPI.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://chula-my.sharepoint.com/personal/prasert_k_chula_ac_th/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="31" documentId="8_{37E57F2D-5356-4818-8AF1-63E7634FFEF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C780F241-E924-4366-BF30-D9706E658758}"/>
+  <xr:revisionPtr revIDLastSave="67" documentId="8_{37E57F2D-5356-4818-8AF1-63E7634FFEF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EF7D2FB3-5C09-4467-8DCC-904110281AB1}"/>
   <bookViews>
     <workbookView xWindow="4190" yWindow="2400" windowWidth="19200" windowHeight="10050" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="budget" sheetId="2" r:id="rId1"/>
-    <sheet name="kpi" sheetId="3" r:id="rId2"/>
+    <sheet name="budget_group" sheetId="4" r:id="rId2"/>
+    <sheet name="kpi" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="26">
   <si>
     <t>project</t>
   </si>
@@ -85,6 +86,33 @@
   </si>
   <si>
     <t>Gross profit margin</t>
+  </si>
+  <si>
+    <t>section</t>
+  </si>
+  <si>
+    <t>Alpha</t>
+  </si>
+  <si>
+    <t>Beta</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>Gamma</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>I</t>
   </si>
 </sst>
 </file>
@@ -747,7 +775,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="A2" sqref="A2:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -793,7 +821,7 @@
         <v>80</v>
       </c>
       <c r="C4">
-        <v>20</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -801,10 +829,10 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C5">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -818,10 +846,173 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26D54832-5DF8-40FD-BBCF-0910126D46CD}">
+  <sheetPr>
+    <pageSetUpPr autoPageBreaks="0"/>
+  </sheetPr>
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>100</v>
+      </c>
+      <c r="D2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>120</v>
+      </c>
+      <c r="D3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>80</v>
+      </c>
+      <c r="D4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>55</v>
+      </c>
+      <c r="D5">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6">
+        <v>35</v>
+      </c>
+      <c r="D6">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7">
+        <v>75</v>
+      </c>
+      <c r="D7">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8">
+        <v>90</v>
+      </c>
+      <c r="D8">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9">
+        <v>65</v>
+      </c>
+      <c r="D9">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10">
+        <v>55</v>
+      </c>
+      <c r="D10">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;R&amp;P/&amp;N</oddHeader>
+    <oddFooter>&amp;L&amp;8&amp;Z&amp;F&amp;R&amp;8&amp;D &amp;T</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{762CE0C1-CE0B-4EE4-9EB8-9536178313AE}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
